--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/templates/anuj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,9 +68,6 @@
     <t>BILL TO:</t>
   </si>
   <si>
-    <t>ANNEXURE</t>
-  </si>
-  <si>
     <t>{meta:company_name}</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>{meta:total_upcountry_price}</t>
+  </si>
+  <si>
+    <t>ANNEXURE - UPCOUNTRY BOOKINGS</t>
   </si>
 </sst>
 </file>
@@ -202,10 +202,104 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -214,7 +308,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -223,96 +319,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -324,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,28 +344,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,16 +359,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -393,28 +384,42 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,8 +727,8 @@
   </sheetPr>
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -742,229 +747,233 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="20"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="26"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait"/>
 </worksheet>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Upcountry" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -725,18 +725,20 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,29 +141,40 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -330,17 +341,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -368,32 +370,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,11 +385,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +423,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,144 +740,145 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4" style="16" customWidth="1"/>
+    <col min="2" max="5" width="14.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12" style="15" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="11" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="29" t="s">
@@ -870,103 +886,103 @@
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23" t="s">
         <v>30</v>
       </c>
     </row>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,29 +141,40 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -330,17 +341,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -368,32 +370,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,11 +385,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +423,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,139 +743,142 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="1" max="1" width="4" style="16" customWidth="1"/>
+    <col min="2" max="5" width="14.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12" style="15" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="11" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="29" t="s">
@@ -868,103 +886,103 @@
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23" t="s">
         <v>30</v>
       </c>
     </row>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -394,11 +394,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,17 +415,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +704,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B12" sqref="B12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -722,15 +726,15 @@
     </row>
     <row r="2" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -742,7 +746,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -846,11 +850,11 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="14"/>
       <c r="F12" s="12" t="s">
         <v>13</v>
@@ -860,9 +864,9 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="14"/>
       <c r="F13" s="12" t="s">
         <v>9</v>
@@ -894,25 +898,25 @@
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="24" t="s">
         <v>21</v>
       </c>
     </row>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Upcountry" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>ANNEXURE - UPCOUNTRY CHARGES</t>
   </si>
@@ -86,9 +86,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>Pincode</t>
-  </si>
-  <si>
     <t>Upcountry Distance</t>
   </si>
   <si>
@@ -120,6 +117,17 @@
   </si>
   <si>
     <t>{meta:total_upcountry_price}</t>
+  </si>
+  <si>
+    <t>Customer 
+Pincode</t>
+  </si>
+  <si>
+    <t>Service Centre 
+Pincode</t>
+  </si>
+  <si>
+    <t>{booking:upcountry_pincode}</t>
   </si>
 </sst>
 </file>
@@ -137,38 +145,45 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -332,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -701,20 +719,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -723,20 +741,22 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -744,9 +764,10 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -756,9 +777,10 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>2</v>
@@ -766,13 +788,14 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -780,13 +803,14 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -794,23 +818,25 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -818,9 +844,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>8</v>
@@ -828,13 +855,14 @@
       <c r="C10" s="9"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>10</v>
@@ -842,39 +870,42 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>14</v>
@@ -883,20 +914,22 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="14"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="14"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="21" t="s">
         <v>15</v>
@@ -910,41 +943,47 @@
       <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="I16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -952,25 +991,27 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="2"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="20" t="s">
-        <v>30</v>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="8480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Upcountry" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,9 +35,6 @@
     <t>Blackmelon Advance Technology Co Pvt Ltd</t>
   </si>
   <si>
-    <t>92C/1, Street 7, East Azad Nagar, Delhi 110051</t>
-  </si>
-  <si>
     <t>GSTIN: 07AAFCB1281J1ZQ</t>
   </si>
   <si>
@@ -128,12 +125,15 @@
   </si>
   <si>
     <t>{booking:upcountry_pincode}</t>
+  </si>
+  <si>
+    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -451,6 +451,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -721,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -783,14 +786,14 @@
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
@@ -798,14 +801,14 @@
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
@@ -813,14 +816,14 @@
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
@@ -850,14 +853,14 @@
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="4"/>
@@ -865,14 +868,14 @@
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
@@ -880,14 +883,14 @@
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="25"/>
       <c r="F12" s="14"/>
       <c r="G12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
@@ -900,7 +903,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="14"/>
       <c r="G13" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
@@ -908,7 +911,7 @@
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -932,55 +935,55 @@
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="23" t="s">
+      <c r="I16" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -997,7 +1000,7 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -1006,7 +1009,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="8480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Upcountry" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>ANNEXURE - UPCOUNTRY CHARGES</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Blackmelon Advance Technology Co Pvt Ltd</t>
   </si>
   <si>
-    <t>92C/1, Street 7, East Azad Nagar, Delhi 110051</t>
-  </si>
-  <si>
     <t>GSTIN: 07AAFCB1281J1ZQ</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>Pincode</t>
-  </si>
-  <si>
     <t>Upcountry Distance</t>
   </si>
   <si>
@@ -120,12 +114,26 @@
   </si>
   <si>
     <t>{meta:total_upcountry_price}</t>
+  </si>
+  <si>
+    <t>Customer 
+Pincode</t>
+  </si>
+  <si>
+    <t>Service Centre 
+Pincode</t>
+  </si>
+  <si>
+    <t>{booking:upcountry_pincode}</t>
+  </si>
+  <si>
+    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -137,38 +145,45 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -332,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,11 +409,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,17 +433,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,6 +451,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -697,20 +722,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -719,20 +744,22 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -740,9 +767,10 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -752,61 +780,66 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="2"/>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -814,133 +847,146 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+      <c r="G10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="14"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="14"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="I16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -948,25 +994,27 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="2"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="20" t="s">
-        <v>30</v>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DADF4D-AC0E-43A5-BB67-CA32A38567A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="8480" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upcountry" sheetId="1" r:id="rId1"/>
@@ -127,13 +128,13 @@
     <t>{booking:upcountry_pincode}</t>
   </si>
   <si>
-    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
+    <t>A-1/7, F/F A BLOCK, KRISHNA NAGAR, DELHI, 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -721,21 +722,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -746,7 +747,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>0</v>
@@ -759,7 +760,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -770,7 +771,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -783,7 +784,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>32</v>
@@ -798,7 +799,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>3</v>
@@ -813,7 +814,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -828,7 +829,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -839,7 +840,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
@@ -850,7 +851,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>7</v>
@@ -865,7 +866,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
@@ -880,7 +881,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="29" t="s">
         <v>11</v>
@@ -895,7 +896,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="31"/>
       <c r="C13" s="30"/>
@@ -908,7 +909,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>13</v>
@@ -921,7 +922,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
@@ -932,7 +933,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="21" t="s">
         <v>14</v>
@@ -959,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>20</v>
@@ -986,7 +987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -997,7 +998,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
         <v>27</v>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -70,9 +70,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>Service Centre City</t>
-  </si>
-  <si>
     <t>Service Centre 
 Pincode</t>
   </si>
@@ -81,6 +78,9 @@
 Pincode</t>
   </si>
   <si>
+    <t>Upcountry District</t>
+  </si>
+  <si>
     <t>Upcountry Distance</t>
   </si>
   <si>
@@ -99,13 +99,13 @@
     <t>{booking:city}</t>
   </si>
   <si>
+    <t>{booking:upcountry_pincode}</t>
+  </si>
+  <si>
+    <t>{booking:booking_pincode}</t>
+  </si>
+  <si>
     <t>{booking:upcountry_city}</t>
-  </si>
-  <si>
-    <t>{booking:upcountry_pincode}</t>
-  </si>
-  <si>
-    <t>{booking:booking_pincode}</t>
   </si>
   <si>
     <t>{booking:upcountry_distance}</t>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -378,6 +378,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -397,6 +400,9 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -407,10 +413,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -456,7 +462,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.0"/>
-    <col customWidth="1" min="2" max="7" width="14.43"/>
+    <col customWidth="1" min="2" max="6" width="14.43"/>
     <col customWidth="1" min="9" max="9" width="10.0"/>
     <col customWidth="1" min="10" max="10" width="9.71"/>
   </cols>
@@ -522,10 +528,10 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
     </row>
@@ -538,10 +544,10 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
     </row>
@@ -554,10 +560,10 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
     </row>
@@ -568,7 +574,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
@@ -594,112 +600,112 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="15" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="H12" s="16"/>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="15" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="H13" s="16"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -717,19 +723,19 @@
       <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="33" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="34" t="s">
         <v>32</v>
       </c>
     </row>
@@ -746,18 +752,18 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38" t="s">
         <v>34</v>
       </c>
     </row>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2-upcountry.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>ANNEXURE - UPCOUNTRY CHARGES</t>
   </si>
@@ -78,9 +78,6 @@
 Pincode</t>
   </si>
   <si>
-    <t>Upcountry District</t>
-  </si>
-  <si>
     <t>Upcountry Distance</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>{booking:booking_pincode}</t>
-  </si>
-  <si>
-    <t>{booking:upcountry_city}</t>
   </si>
   <si>
     <t>{booking:upcountry_distance}</t>
@@ -335,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -380,9 +374,6 @@
     <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -400,9 +391,6 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -415,14 +403,8 @@
     <xf borderId="15" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="16" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -463,8 +445,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.0"/>
     <col customWidth="1" min="2" max="6" width="14.43"/>
-    <col customWidth="1" min="9" max="9" width="10.0"/>
-    <col customWidth="1" min="10" max="10" width="9.71"/>
+    <col customWidth="1" min="8" max="8" width="10.0"/>
+    <col customWidth="1" min="9" max="9" width="9.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -477,7 +459,6 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
     <row r="2" ht="30.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -490,8 +471,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
@@ -502,8 +482,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="8"/>
@@ -516,8 +495,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>
@@ -531,9 +509,8 @@
       <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="10"/>
@@ -547,9 +524,8 @@
       <c r="G6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
@@ -563,9 +539,8 @@
       <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5"/>
@@ -575,9 +550,8 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
@@ -588,8 +562,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="13"/>
@@ -603,13 +576,12 @@
       <c r="G10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5"/>
@@ -619,124 +591,113 @@
       <c r="G11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="I17" s="30" t="s">
         <v>30</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -748,23 +709,21 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38" t="s">
-        <v>34</v>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -1751,7 +1710,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:D13"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
